--- a/LTC6811_ESP32_V5/Master/LTC6811_ESP32_Master_V5_BOM.xlsx
+++ b/LTC6811_ESP32_V5/Master/LTC6811_ESP32_Master_V5_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="258">
   <si>
     <t>Item</t>
   </si>
@@ -56,7 +56,7 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C27,C28,C32,C37,C41,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C67,C68,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88</t>
+    <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C27,C28,C32,C37,C41,C47,C49,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C67,C68,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88</t>
   </si>
   <si>
     <t>100nF/100V</t>
@@ -167,24 +167,6 @@
     <t>CL10A475KO8NNNC</t>
   </si>
   <si>
-    <t>C47,C49</t>
-  </si>
-  <si>
-    <t>0.1uF/50V</t>
-  </si>
-  <si>
-    <t>0.1 uF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/658/CL10B104KB8NNWC_Spec.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KB8NNWC/3887593</t>
-  </si>
-  <si>
-    <t>CL10B104KB8NNWC</t>
-  </si>
-  <si>
     <t>D1,D4,D9,D25</t>
   </si>
   <si>
@@ -363,21 +345,6 @@
   </si>
   <si>
     <t>https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050</t>
-  </si>
-  <si>
-    <t>JP4</t>
-  </si>
-  <si>
-    <t>SolderJumper_2_Open</t>
-  </si>
-  <si>
-    <t>Solder Jumper, 2-pole, open</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
   </si>
   <si>
     <t>Q1,Q14</t>
@@ -1449,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1424,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1992,18 +1962,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.375" style="1" customWidth="1"/>
@@ -2039,12 +2010,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:9">
+    <row r="2" ht="54" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2061,7 +2032,7 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2090,7 +2061,7 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2113,13 +2084,13 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2142,13 +2113,13 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2171,13 +2142,13 @@
       <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2200,13 +2171,13 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2218,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -2229,17 +2200,17 @@
       <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:9">
@@ -2250,25 +2221,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:9">
@@ -2276,28 +2247,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:9">
@@ -2305,28 +2276,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:9">
@@ -2334,28 +2305,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" ht="67.5" spans="1:9">
@@ -2363,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>80</v>
@@ -2374,20 +2345,20 @@
       <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" ht="67.5" spans="1:9">
+    <row r="14" ht="54" spans="1:9">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2403,17 +2374,17 @@
       <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:9">
@@ -2421,28 +2392,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="54" spans="1:9">
@@ -2450,36 +2421,36 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:9">
+    </row>
+    <row r="17" ht="67.5" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>106</v>
@@ -2490,40 +2461,46 @@
       <c r="E17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:9">
@@ -2531,28 +2508,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:9">
@@ -2560,28 +2537,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:9">
@@ -2589,24 +2566,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>135</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2618,7 +2595,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>137</v>
@@ -2629,13 +2606,13 @@
       <c r="E22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>141</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2647,7 +2624,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>143</v>
@@ -2658,13 +2635,13 @@
       <c r="E23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>140</v>
+      <c r="F23" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>146</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2676,7 +2653,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>148</v>
@@ -2687,13 +2664,13 @@
       <c r="E24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>152</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2705,7 +2682,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>154</v>
@@ -2716,133 +2693,133 @@
       <c r="E25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>140</v>
+      <c r="F25" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>157</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="1:9">
+    <row r="26" ht="54" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" ht="81" spans="1:9">
+    </row>
+    <row r="27" ht="67.5" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" ht="54" spans="1:9">
+    </row>
+    <row r="28" ht="67.5" spans="1:9">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" ht="67.5" spans="1:9">
+    </row>
+    <row r="29" ht="54" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="1:9">
@@ -2850,144 +2827,144 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>182</v>
+        <v>84</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" ht="81" spans="1:9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="1:9">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="F31" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" ht="81" spans="1:9">
+    </row>
+    <row r="32" ht="54" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H32" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" ht="67.5" spans="1:9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="1:9">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>162</v>
+        <v>199</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:9">
@@ -2995,28 +2972,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:9">
@@ -3024,260 +3001,202 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:9">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:9">
+    </row>
+    <row r="38" ht="54" spans="1:9">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" ht="40.5" spans="1:9">
+    </row>
+    <row r="39" ht="54" spans="1:9">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" ht="54" spans="1:9">
+    </row>
+    <row r="40" ht="94.5" spans="1:9">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" ht="54" spans="1:9">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>242</v>
+      <c r="F41" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" ht="94.5" spans="1:9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="1:9">
       <c r="A42" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" ht="54" spans="1:9">
-      <c r="A43" s="1">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E43" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" ht="54" spans="1:9">
-      <c r="A44" s="1">
-        <v>47</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3285,6 +3204,46 @@
     <hyperlink ref="F2" r:id="rId1" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4AdEkAXQF8g"/>
     <hyperlink ref="F3" r:id="rId2" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R61E225KA12-01.pdf"/>
     <hyperlink ref="H2" r:id="rId3" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R61E225KA12D/4905349"/>
+    <hyperlink ref="H4" r:id="rId5" display="https://www.digikey.jp/en/products/detail/kemet/C0603C102K4RECAUTO/8640472"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://www.digikey.jp/en/products/detail/kemet/C0603X103K1RAC3316/10315782"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B105KA8NNNC/3886842"/>
+    <hyperlink ref="H7" r:id="rId8" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10A475KO8NNNC/3887442?s=N4IgTCBcDaIMIBkCMAGAggFgOwFYDSA8gBwByZcIAugL5A"/>
+    <hyperlink ref="H8" r:id="rId9" display="https://www.digikey.jp/en/products/detail/liteon/LTST-C190KRKT/386817"/>
+    <hyperlink ref="H9" r:id="rId10" display="https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371"/>
+    <hyperlink ref="H10" r:id="rId11" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/BZT52H-C62-115/1162867"/>
+    <hyperlink ref="H11" r:id="rId12" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708"/>
+    <hyperlink ref="H12" r:id="rId13" display="https://www.digikey.jp/en/products/detail/tdk-corporation/MPZ2012S102ATD25/5040327?s=N4IgTCBcDaILIAUBaYAMBGMBldqwEEAVAETAFYQBdAXyA"/>
+    <hyperlink ref="H13" r:id="rId14" display="https://www.digikey.jp/en/products/detail/murata-electronics/BLM18PG330SN1D/1948325?s=N4IgTCBcDaIEIBkCyBGAHABQOIGYcAYBlAORQBEQBdAXyA"/>
+    <hyperlink ref="H14" r:id="rId15" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B4B-XH-A/1651047"/>
+    <hyperlink ref="H15" r:id="rId16" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B2P-VH/926547"/>
+    <hyperlink ref="H16" r:id="rId17" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050"/>
+    <hyperlink ref="H17" r:id="rId18" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
+    <hyperlink ref="H18" r:id="rId19" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
+    <hyperlink ref="H19" r:id="rId20" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-3EKF49R9V/196378"/>
+    <hyperlink ref="H20" r:id="rId21" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0710KL/726880"/>
+    <hyperlink ref="H21" r:id="rId22" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A"/>
+    <hyperlink ref="H22" r:id="rId23" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA"/>
+    <hyperlink ref="H23" r:id="rId24" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-071KL/726843"/>
+    <hyperlink ref="H24" r:id="rId25" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-072KL/727009?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GANIAyIAugL5A"/>
+    <hyperlink ref="H25" r:id="rId26" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
+    <hyperlink ref="H26" r:id="rId27" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
+    <hyperlink ref="H27" r:id="rId28" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
+    <hyperlink ref="H28" r:id="rId29" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
+    <hyperlink ref="H29" r:id="rId30" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF2512JT36R0/1716346"/>
+    <hyperlink ref="H30" r:id="rId31" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
+    <hyperlink ref="H31" r:id="rId32" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07120RL/726706"/>
+    <hyperlink ref="H32" r:id="rId33" display="https://www.digikey.jp/en/products/detail/cts-electrocomponents/208-8/20795"/>
+    <hyperlink ref="H33" r:id="rId34" display="https://www.digikey.jp/en/products/detail/murata-electronics/NCU18XH103F6SRB/7243451"/>
+    <hyperlink ref="H34" r:id="rId35" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1103F3380/1840604"/>
+    <hyperlink ref="H35" r:id="rId36" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611"/>
+    <hyperlink ref="H36" r:id="rId37" display="https://www.digikey.jp/en/products/detail/microchip-technology/MCP23017T-E-SO/964184"/>
+    <hyperlink ref="H37" r:id="rId38" display="https://www.digikey.jp/en/products/detail/microchip-technology/MCP2562T-E-SN/4079891"/>
+    <hyperlink ref="H38" r:id="rId39" display="https://www.digikey.jp/en/products/detail/rohm-semiconductor/BD33FC0FP-E2/7896452?s=N4IgTCBcDaIEIBEDMSBiBhADKgCgWgFEIBdAXyA"/>
+    <hyperlink ref="H39" r:id="rId40" display="https://www.digikey.jp/en/products/detail/rohm-semiconductor/BD50FC0FP-E2/7896453?s=N4IgTCBcDaIEIBECsAGAYgYXQBQLQFEIBdAXyA"/>
+    <hyperlink ref="H40" r:id="rId41" display="https://www.digikey.jp/en/products/detail/espressif-systems/ESP32-DEVKITC-32E/12091810"/>
+    <hyperlink ref="H41" r:id="rId42" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6820IMS-PBF/3838555?s=N4IgTCBcDaIDIBUDCA2AHGADASQLIGUBiABQCEAxAAhAF0BfIA"/>
+    <hyperlink ref="H42" r:id="rId43" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
